--- a/6-Cierre/20-Acta de aceptacion de entregables.xlsx
+++ b/6-Cierre/20-Acta de aceptacion de entregables.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3269CA-C95E-4129-8D27-50B55AEC1E45}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="345" yWindow="1455" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +19,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Resultado de las pruebas del servicio</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +65,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +88,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>58109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Resultado de imagen para secretaria de funcion publica">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CCCEAE-07A6-4D80-9856-66045F9AE7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="647700" y="104775"/>
+          <a:ext cx="5429250" cy="1858334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +418,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B12:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:J13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>